--- a/data/georgia_census/imereti/terjola/population_total.xlsx
+++ b/data/georgia_census/imereti/terjola/population_total.xlsx
@@ -1365,13 +1365,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4CAD265A-23E8-4913-BE21-4639CF9A09D3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BD7EA168-6BA3-47C8-972C-E1FDCEAC676D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{259E77DE-FFA2-4F49-8494-93EC9F082C63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{005E7118-5C38-49D5-A1DF-5BF675371A33}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27C19838-0E72-43DF-9327-A736F525A400}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96740CE6-24F7-4342-AC53-1A0F5C609E60}"/>
 </file>